--- a/biology/Botanique/Stachys_spreitzenhoferi/Stachys_spreitzenhoferi.xlsx
+++ b/biology/Botanique/Stachys_spreitzenhoferi/Stachys_spreitzenhoferi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachys spreitzenhoferi est une espèce de plantes de la famille des Lamiaceae, endémique au sud du Péloponnèse.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la plante a été attribué en l'honneur du botaniste autrichien Georg Constantin Spreitzenhofer (1835 - 1883)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la plante a été attribué en l'honneur du botaniste autrichien Georg Constantin Spreitzenhofer (1835 - 1883).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce endémique de Cythère et au sud-est du Péloponnèse, à basse altitude[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce endémique de Cythère et au sud-est du Péloponnèse, à basse altitude.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante herbacée haute de 5 à 20 cm.
 Fleurs blanches en groupe de 4 ou 6 fleurs au bord des pousses, à haut et bas violet.
-Feuilles velues, légèrement dentées, grisâtres sur la face supérieure et blanchâtres sur la face inférieure[2].
+Feuilles velues, légèrement dentées, grisâtres sur la face supérieure et blanchâtres sur la face inférieure.
 			Stachys spreizenhoferi en floraison en mai.
 			Vue de la plante
 </t>
@@ -608,7 +626,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers et murs calcaires.
 </t>
